--- a/biology/Botanique/Ardisia_eugenioides/Ardisia_eugenioides.xlsx
+++ b/biology/Botanique/Ardisia_eugenioides/Ardisia_eugenioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia eugenioides (synonyme Ardisia rigidifolia  Lundell) est une espèce de plantes à fleurs de la famille des Primulaceae. Elle est en danger d'extinction d'après l'Union internationale pour la conservation de la nature (UICN).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1976 par le botaniste Cyrus Longworth Lundell (1907-1994).
-En classification phylogénétique APG III (2009)[2], l'espèce est assignée à la famille des Primulaceae. En classification classique de Cronquist (1981)[3] et en classification phylogénétique APG II (2003)[4], le genre Ardisia était assigné à la famille des Myrsinaceae.
+En classification phylogénétique APG III (2009), l'espèce est assignée à la famille des Primulaceae. En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), le genre Ardisia était assigné à la famille des Myrsinaceae.
 </t>
         </is>
       </c>
